--- a/Docs/DataBaseTables.xlsx
+++ b/Docs/DataBaseTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiode\Documents\Programacion\Bootcamp\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiode\Documents\Programacion\Bootcamp\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>User</t>
   </si>
@@ -98,9 +98,6 @@
     <t>CategoryId</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -108,13 +105,124 @@
   </si>
   <si>
     <t>PaymentId</t>
+  </si>
+  <si>
+    <t>Methods:</t>
+  </si>
+  <si>
+    <t>deleteById</t>
+  </si>
+  <si>
+    <t>findById</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>findAll</t>
+  </si>
+  <si>
+    <t>findByDescriptionContaining</t>
+  </si>
+  <si>
+    <t>registerNew (save)</t>
+  </si>
+  <si>
+    <t>addExpense (save)</t>
+  </si>
+  <si>
+    <t>RestExpenseController</t>
+  </si>
+  <si>
+    <t>RestUserController</t>
+  </si>
+  <si>
+    <t>findByUserId</t>
+  </si>
+  <si>
+    <t>saveIncome</t>
+  </si>
+  <si>
+    <t>addCategory (save)</t>
+  </si>
+  <si>
+    <t>addPaymentMethod (save)</t>
+  </si>
+  <si>
+    <t>RestCategoryController</t>
+  </si>
+  <si>
+    <t>retrieveAllCategories GET</t>
+  </si>
+  <si>
+    <t>retrieveCategory GET</t>
+  </si>
+  <si>
+    <t>createCategory POST</t>
+  </si>
+  <si>
+    <t>RestPayMethController</t>
+  </si>
+  <si>
+    <t>retrievePayMeth GET</t>
+  </si>
+  <si>
+    <t>retrieveAllPayMethods GET</t>
+  </si>
+  <si>
+    <t>createPayMeth POST</t>
+  </si>
+  <si>
+    <t>retrieveUser GET</t>
+  </si>
+  <si>
+    <t>retrieveAllUsers GET</t>
+  </si>
+  <si>
+    <t>registerUser POST</t>
+  </si>
+  <si>
+    <t>retrieveExpensesByCategoryId GET</t>
+  </si>
+  <si>
+    <t>createExpense POST</t>
+  </si>
+  <si>
+    <t>retrieveAllExpenses GET</t>
+  </si>
+  <si>
+    <t>retrieveExpense GET</t>
+  </si>
+  <si>
+    <t>(without cents)</t>
+  </si>
+  <si>
+    <t>StartAt</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ExpenseDate</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,21 +233,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,14 +323,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,35 +670,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="3"/>
       <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -521,7 +716,7 @@
       <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -539,16 +734,25 @@
       <c r="K2" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -559,8 +763,8 @@
       <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -568,10 +772,19 @@
       <c r="K3" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="M3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -579,7 +792,7 @@
       <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -589,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -597,16 +810,25 @@
       <c r="K4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -616,164 +838,437 @@
       </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>75</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>11</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
